--- a/database_layout.xlsx
+++ b/database_layout.xlsx
@@ -143,9 +143,6 @@
     <t>userID</t>
   </si>
   <si>
-    <t>comments</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
@@ -591,6 +588,9 @@
   </si>
   <si>
     <t>data bài đọc, data luyện nghe, phần context cho các câu hỏi, các subLession trong bookDetail sẽ refer đến đây để lấy data cụ thể cho bài học.</t>
+  </si>
+  <si>
+    <t>comment</t>
   </si>
 </sst>
 </file>
@@ -2778,7 +2778,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="3" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -2798,74 +2798,74 @@
     <row r="4" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13"/>
       <c r="B4" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="13"/>
     </row>
     <row r="5" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13"/>
       <c r="B5" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="13"/>
     </row>
     <row r="7" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
       <c r="B8" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="13"/>
       <c r="B9" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" s="13"/>
     </row>
     <row r="10" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="13"/>
       <c r="B10" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="13"/>
     </row>
     <row r="11" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
       <c r="B11" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
       <c r="B12" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" s="13"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2888,7 +2888,7 @@
     <col min="5" max="16384" width="14.5" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="51" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2896,10 +2896,10 @@
         <v>20</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.15">
@@ -2907,13 +2907,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.15">
@@ -2921,13 +2921,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="68" x14ac:dyDescent="0.15">
@@ -2938,10 +2938,10 @@
         <v>27</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="68" x14ac:dyDescent="0.15">
@@ -2952,10 +2952,10 @@
         <v>28</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.15">
@@ -2966,10 +2966,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="68" x14ac:dyDescent="0.15">
@@ -2977,13 +2977,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.15">
@@ -2994,10 +2994,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.15">
@@ -3005,13 +3005,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.15">
@@ -3019,13 +3019,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.15">
@@ -3033,13 +3033,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.15">
@@ -3047,13 +3047,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.15">
@@ -3064,10 +3064,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.15">
@@ -3075,13 +3075,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.15">
@@ -3095,7 +3095,7 @@
         <v>18</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -3109,7 +3109,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.15">
@@ -3117,13 +3117,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.15">
@@ -3131,13 +3131,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="51" x14ac:dyDescent="0.15">
@@ -3145,13 +3145,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="51" x14ac:dyDescent="0.15">
@@ -3159,13 +3159,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.15">
@@ -3173,13 +3173,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.15">
@@ -3187,13 +3187,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.15">
@@ -3201,10 +3201,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D23" s="19"/>
     </row>
@@ -3579,7 +3579,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3587,10 +3587,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>4</v>
@@ -3603,13 +3603,13 @@
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3618,10 +3618,10 @@
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -3631,10 +3631,10 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -3643,13 +3643,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -3659,13 +3659,13 @@
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3674,7 +3674,7 @@
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>4</v>
@@ -3687,10 +3687,10 @@
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -3700,10 +3700,10 @@
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>4</v>
@@ -3773,7 +3773,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3785,10 +3785,10 @@
         <v>24</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3803,7 +3803,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3818,7 +3818,7 @@
         <v>13</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3832,7 +3832,7 @@
         <v>30</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -3848,7 +3848,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3863,7 +3863,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3878,7 +3878,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3893,7 +3893,7 @@
         <v>4</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="34" x14ac:dyDescent="0.25">
@@ -3908,7 +3908,7 @@
         <v>4</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3922,7 +3922,7 @@
         <v>30</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -3935,7 +3935,7 @@
         <v>36</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E26" s="2"/>
     </row>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="5" t="s">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>4</v>
@@ -3958,10 +3958,10 @@
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E28" s="2"/>
     </row>
@@ -3970,13 +3970,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E29" s="2"/>
     </row>
@@ -3989,7 +3989,7 @@
         <v>36</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E30" s="2"/>
     </row>
@@ -3999,10 +3999,10 @@
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E31" s="2"/>
     </row>
@@ -4012,13 +4012,13 @@
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -4027,10 +4027,10 @@
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E33" s="2"/>
     </row>
@@ -4040,10 +4040,10 @@
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E34" s="2"/>
     </row>
@@ -4055,7 +4055,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>4</v>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>4</v>
@@ -4094,7 +4094,7 @@
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>4</v>
@@ -4107,11 +4107,11 @@
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -4150,7 +4150,7 @@
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -4176,7 +4176,7 @@
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -4204,7 +4204,7 @@
         <v>13</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="68" x14ac:dyDescent="0.25">
@@ -4219,7 +4219,7 @@
         <v>4</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -4240,10 +4240,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>4</v>
@@ -4256,7 +4256,7 @@
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>4</v>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>4</v>
@@ -4282,7 +4282,7 @@
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>4</v>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>4</v>
@@ -4312,7 +4312,7 @@
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -4321,11 +4321,11 @@
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -4353,7 +4353,7 @@
         <v>13</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="68" x14ac:dyDescent="0.25">
@@ -4368,7 +4368,7 @@
         <v>4</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -4389,10 +4389,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>4</v>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>4</v>
@@ -4418,7 +4418,7 @@
       </c>
       <c r="B62" s="9"/>
       <c r="C62" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>4</v>
@@ -4431,11 +4431,11 @@
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -4461,7 +4461,7 @@
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -4502,7 +4502,7 @@
         <v>13</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="68" x14ac:dyDescent="0.25">
@@ -4517,7 +4517,7 @@
         <v>4</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -4538,16 +4538,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -4556,7 +4556,7 @@
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>4</v>
@@ -4581,10 +4581,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>4</v>
@@ -4597,7 +4597,7 @@
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>4</v>
@@ -4610,11 +4610,11 @@
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -4623,7 +4623,7 @@
       </c>
       <c r="B77" s="9"/>
       <c r="C77" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>4</v>
@@ -4636,7 +4636,7 @@
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>4</v>
@@ -4653,7 +4653,7 @@
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -4679,7 +4679,7 @@
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -4707,7 +4707,7 @@
         <v>13</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="68" x14ac:dyDescent="0.25">
@@ -4722,7 +4722,7 @@
         <v>4</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -4737,7 +4737,7 @@
         <v>4</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -4748,13 +4748,13 @@
         <v>2</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -4769,7 +4769,7 @@
         <v>13</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -4784,7 +4784,7 @@
         <v>4</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -4797,7 +4797,7 @@
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>4</v>
@@ -4819,10 +4819,10 @@
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E91" s="2"/>
     </row>
@@ -4832,7 +4832,7 @@
       </c>
       <c r="B92" s="9"/>
       <c r="C92" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>4</v>
@@ -4845,10 +4845,10 @@
       </c>
       <c r="B93" s="9"/>
       <c r="C93" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E93" s="2"/>
     </row>
@@ -4858,7 +4858,7 @@
       </c>
       <c r="B94" s="9"/>
       <c r="C94" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>4</v>
@@ -4871,10 +4871,10 @@
       </c>
       <c r="B95" s="9"/>
       <c r="C95" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E95" s="2"/>
     </row>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="B96" s="9"/>
       <c r="C96" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>4</v>
@@ -4897,10 +4897,10 @@
       </c>
       <c r="B97" s="10"/>
       <c r="C97" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E97" s="2"/>
     </row>
@@ -4909,13 +4909,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E98" s="2"/>
     </row>
@@ -4925,10 +4925,10 @@
       </c>
       <c r="B99" s="9"/>
       <c r="C99" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E99" s="2"/>
     </row>
@@ -4941,7 +4941,7 @@
         <v>30</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E100" s="2"/>
     </row>
@@ -4964,7 +4964,7 @@
       </c>
       <c r="B102" s="9"/>
       <c r="C102" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>4</v>
@@ -4977,10 +4977,10 @@
       </c>
       <c r="B103" s="9"/>
       <c r="C103" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E103" s="2"/>
     </row>
@@ -4990,10 +4990,10 @@
       </c>
       <c r="B104" s="9"/>
       <c r="C104" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E104" s="2"/>
     </row>
@@ -5003,10 +5003,10 @@
       </c>
       <c r="B105" s="9"/>
       <c r="C105" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E105" s="2"/>
     </row>
@@ -5031,7 +5031,7 @@
       </c>
       <c r="B107" s="9"/>
       <c r="C107" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>4</v>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="B108" s="9"/>
       <c r="C108" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>4</v>
@@ -5057,7 +5057,7 @@
       </c>
       <c r="B109" s="9"/>
       <c r="C109" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="2"/>
@@ -5068,10 +5068,10 @@
       </c>
       <c r="B110" s="9"/>
       <c r="C110" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E110" s="2"/>
     </row>
@@ -5081,11 +5081,11 @@
       </c>
       <c r="B111" s="10"/>
       <c r="C111" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -5096,13 +5096,13 @@
         <v>17</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -5114,7 +5114,7 @@
         <v>36</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E113" s="2"/>
     </row>
@@ -5123,13 +5123,13 @@
         <v>113</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E114" s="2"/>
     </row>
@@ -5139,10 +5139,10 @@
       </c>
       <c r="B115" s="9"/>
       <c r="C115" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E115" s="2"/>
     </row>
@@ -5152,7 +5152,7 @@
       </c>
       <c r="B116" s="10"/>
       <c r="C116" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>4</v>
@@ -5164,7 +5164,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>22</v>
@@ -5180,7 +5180,7 @@
       </c>
       <c r="B118" s="9"/>
       <c r="C118" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>4</v>
@@ -5193,10 +5193,10 @@
       </c>
       <c r="B119" s="9"/>
       <c r="C119" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E119" s="2"/>
     </row>
@@ -5206,10 +5206,10 @@
       </c>
       <c r="B120" s="9"/>
       <c r="C120" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E120" s="2"/>
     </row>
@@ -5219,7 +5219,7 @@
       </c>
       <c r="B121" s="9"/>
       <c r="C121" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>13</v>
@@ -5232,13 +5232,13 @@
       </c>
       <c r="B122" s="9"/>
       <c r="C122" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -5247,13 +5247,13 @@
       </c>
       <c r="B123" s="10"/>
       <c r="C123" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -5261,16 +5261,16 @@
         <v>123</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -5282,7 +5282,7 @@
         <v>36</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E125" s="2"/>
     </row>
@@ -5292,10 +5292,10 @@
       </c>
       <c r="B126" s="9"/>
       <c r="C126" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E126" s="2"/>
     </row>
@@ -5305,10 +5305,10 @@
       </c>
       <c r="B127" s="10"/>
       <c r="C127" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E127" s="2"/>
     </row>
@@ -5317,16 +5317,16 @@
         <v>127</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -5338,7 +5338,7 @@
         <v>30</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E129" s="2"/>
     </row>
@@ -5347,13 +5347,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E130" s="2"/>
     </row>
@@ -5363,10 +5363,10 @@
       </c>
       <c r="B131" s="9"/>
       <c r="C131" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E131" s="2"/>
     </row>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="B132" s="10"/>
       <c r="C132" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>4</v>
@@ -5388,13 +5388,13 @@
         <v>132</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E133" s="2"/>
     </row>
@@ -5407,7 +5407,7 @@
         <v>36</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E134" s="2"/>
     </row>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="B135" s="10"/>
       <c r="C135" s="5" t="s">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>4</v>
@@ -5429,11 +5429,11 @@
         <v>135</v>
       </c>
       <c r="B136" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E136" s="2"/>
     </row>
@@ -5512,18 +5512,18 @@
   <sheetData>
     <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B35" s="25"/>
     </row>
     <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
